--- a/hw05/hw05.xlsx
+++ b/hw05/hw05.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack3\Documents\Jack\NTHU\2020_spring\Algorithm_EE39800\hw05\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B2B98F-3B81-4382-8114-915F1E87C91D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -20,26 +33,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t xml:space="preserve">N</t>
+    <t>N</t>
   </si>
   <si>
-    <t xml:space="preserve">Brute-force</t>
+    <t>MaxSubArrayBF</t>
   </si>
   <si>
-    <t xml:space="preserve">Divide &amp; Conquer</t>
+    <t>MaxSubArray</t>
+  </si>
+  <si>
+    <t>N^3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N lg N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00E+00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.00000E+00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK HK"/>
@@ -48,21 +68,18 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <i/>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -74,62 +91,62 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="3">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -188,64 +205,146 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Speed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t> Test</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$A$1</c:f>
+              <c:f>工作表1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N</c:v>
+                  <c:v>MaxSubArrayBF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="004586"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="004586"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
+          <c:xVal>
             <c:numRef>
               <c:f>工作表1!$A$2:$A$10</c:f>
               <c:numCache>
@@ -280,326 +379,1333 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.0531159999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.384186E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7690659999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.698017E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8780650000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4600939999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39714500000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2929560000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.69436</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7F4C-4249-9636-F4C10E2653D5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$1</c:f>
+              <c:f>工作表1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Brute-force</c:v>
+                  <c:v>MaxSubArray</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>工作表1!$B$2:$B$10</c:f>
+              <c:f>工作表1!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.053116E-006</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.384186E-005</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0001769066</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.001698017</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.007878065</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.06460094</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.397145</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.292956</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.69436</c:v>
+                  <c:v>3890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7.4696539999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6698840000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.625154E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5498559999999995E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8418180000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6523880000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2038069999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5527299999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9107090000000002E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7F4C-4249-9636-F4C10E2653D5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$C$1</c:f>
+              <c:f>工作表1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Divide &amp; Conquer</c:v>
+                  <c:v>N^3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>工作表1!$C$2:$C$10</c:f>
+              <c:f>工作表1!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7.469654E-007</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.669884E-006</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.625154E-006</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.549856E-006</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.041818E-005</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.252388E-005</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.703807E-005</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000145273</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0003810709</c:v>
+                  <c:v>3890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.0960000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2768000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6214400000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0971520000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6777216000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.34217728E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1073741824</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85899345920000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8863868999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7F4C-4249-9636-F4C10E2653D5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:hiLowLines>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N lg N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3890</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.9265919722494797E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8164799306236993E-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1559551833496877E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6972287611492714E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1650943111983352E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3871462200196253E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0825471555991676E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7816037423181691E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3964903949157003E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7F4C-4249-9636-F4C10E2653D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1393252400"/>
+        <c:axId val="1243434384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1393252400"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t> of shares(N)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
             <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="20819176"/>
-        <c:axId val="61496517"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="20819176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
-          <a:ln>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
+            <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61496517"/>
+        <c:crossAx val="1243434384"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="61496517"/>
+        <c:axId val="1243434384"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>CPU</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t> runtime(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
+            <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20819176"/>
+        <c:crossAx val="1393252400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln>
-      <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>35280</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>120316</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>29577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>106200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>335881</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>45619</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B4CE84-29EF-4A87-9F77-D1C9F6625093}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="35280" y="1861920"/>
-        <a:ext cx="5760360" cy="3236400"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -612,140 +1718,515 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:5">
+      <c r="A2">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>4.053116E-006</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>7.469654E-007</v>
+      <c r="B2" s="2">
+        <v>4.0531159999999998E-6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>7.4696539999999996E-7</v>
+      </c>
+      <c r="D2">
+        <f>A2*A2*A2/10000000000</f>
+        <v>4.0960000000000001E-7</v>
+      </c>
+      <c r="E2">
+        <f>A2*LOG(A2)/1000000000</f>
+        <v>1.9265919722494797E-8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:5">
+      <c r="A3">
         <v>32</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>2.384186E-005</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>1.669884E-006</v>
+      <c r="B3" s="2">
+        <v>2.384186E-5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.6698840000000001E-6</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="0">A3*A3*A3/10000000000</f>
+        <v>3.2768000000000001E-6</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="1">A3*LOG(A3)/1000000000</f>
+        <v>4.8164799306236993E-8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:5">
+      <c r="A4">
         <v>64</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>0.0001769066</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>3.625154E-006</v>
+      <c r="B4" s="2">
+        <v>1.7690659999999999E-4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.625154E-6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2.6214400000000001E-5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>1.1559551833496877E-7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:5">
+      <c r="A5">
         <v>128</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>0.001698017</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>9.549856E-006</v>
+      <c r="B5" s="2">
+        <v>1.698017E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9.5498559999999995E-6</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2.0971520000000001E-4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>2.6972287611492714E-7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:5">
+      <c r="A6">
         <v>256</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>0.007878065</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>1.041818E-005</v>
+      <c r="B6" s="2">
+        <v>7.8780650000000001E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.8418180000000001E-5</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1.6777216000000001E-3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>6.1650943111983352E-7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:5">
+      <c r="A7">
         <v>512</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>0.06460094</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>2.252388E-005</v>
+      <c r="B7" s="2">
+        <v>6.4600939999999996E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.6523880000000003E-5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1.34217728E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1.3871462200196253E-6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:5">
+      <c r="A8">
         <v>1024</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>0.397145</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>5.703807E-005</v>
+      <c r="B8" s="2">
+        <v>0.39714500000000003</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7.2038069999999995E-5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.1073741824</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>3.0825471555991676E-6</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:5">
+      <c r="A9">
         <v>2048</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>3.292956</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>0.000145273</v>
+      <c r="B9" s="2">
+        <v>3.2929560000000002</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.5527299999999999E-4</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.85899345920000003</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>6.7816037423181691E-6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:5">
+      <c r="A10">
         <v>3890</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>25.69436</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>0.0003810709</v>
+      <c r="C10" s="2">
+        <v>3.9107090000000002E-4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>5.8863868999999998</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>1.3964903949157003E-5</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>